--- a/RaxML_analysis/RAPTORB/EMSEMBL_RAPTOR1B_homologs.xlsx
+++ b/RaxML_analysis/RAPTORB/EMSEMBL_RAPTOR1B_homologs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\RaptorB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\RAPTORB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF9E54D0-138C-4FA3-81B3-6B31DCB33722}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B34D0AD-0F4B-4365-A181-DBAE8DBEEC5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMSEMBL_RAPTOR1B_homologs" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,20 @@
     <sheet name="ensembl" sheetId="5" r:id="rId4"/>
     <sheet name="phyto" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="568">
   <si>
     <t>gene_stable_id</t>
   </si>
@@ -929,222 +937,6 @@
     <t>homo_sapiens</t>
   </si>
   <si>
-    <t>[Arabidopsis thaliana]</t>
-  </si>
-  <si>
-    <t>[Arabidopsis lyrata subsp. lyrata]</t>
-  </si>
-  <si>
-    <t>[Camelina sativa]</t>
-  </si>
-  <si>
-    <t>[Capsella rubella]</t>
-  </si>
-  <si>
-    <t>[Eutrema salsugineum]</t>
-  </si>
-  <si>
-    <t>[Raphanus sativus]</t>
-  </si>
-  <si>
-    <t>[Brassica rapa]</t>
-  </si>
-  <si>
-    <t>[Brassica napus]</t>
-  </si>
-  <si>
-    <t>[Brassica oleracea var. oleracea]</t>
-  </si>
-  <si>
-    <t>[Tarenaya hassleriana]</t>
-  </si>
-  <si>
-    <t>[Manihot esculenta]</t>
-  </si>
-  <si>
-    <t>[Hevea brasiliensis]</t>
-  </si>
-  <si>
-    <t>[Ziziphus jujuba]</t>
-  </si>
-  <si>
-    <t>[Jatropha curcas]</t>
-  </si>
-  <si>
-    <t>[Gossypium raimondii]</t>
-  </si>
-  <si>
-    <t>[Gossypium arboreum]</t>
-  </si>
-  <si>
-    <t>[Morus notabilis]</t>
-  </si>
-  <si>
-    <t>[Prunus avium]</t>
-  </si>
-  <si>
-    <t>[Gossypium hirsutum]</t>
-  </si>
-  <si>
-    <t>[Fragaria vesca subsp. vesca]</t>
-  </si>
-  <si>
-    <t>[Citrus clementina]</t>
-  </si>
-  <si>
-    <t>[Quercus suber]</t>
-  </si>
-  <si>
-    <t>[Prunus persica]</t>
-  </si>
-  <si>
-    <t>[Citrus sinensis]</t>
-  </si>
-  <si>
-    <t>[Rosa chinensis]</t>
-  </si>
-  <si>
-    <t>[Vigna unguiculata]</t>
-  </si>
-  <si>
-    <t>[Phaseolus vulgaris]</t>
-  </si>
-  <si>
-    <t>[Momordica charantia]</t>
-  </si>
-  <si>
-    <t>[Malus domestica]</t>
-  </si>
-  <si>
-    <t>[Cucurbita moschata]</t>
-  </si>
-  <si>
-    <t>[Cucurbita pepo subsp. pepo]</t>
-  </si>
-  <si>
-    <t>[Abrus precatorius]</t>
-  </si>
-  <si>
-    <t>[Herrania umbratica]</t>
-  </si>
-  <si>
-    <t>[Populus trichocarpa]</t>
-  </si>
-  <si>
-    <t>[Juglans regia]</t>
-  </si>
-  <si>
-    <t>[Solanum pennellii]</t>
-  </si>
-  <si>
-    <t>[Solanum lycopersicum]</t>
-  </si>
-  <si>
-    <t>[Solanum tuberosum]</t>
-  </si>
-  <si>
-    <t>[Pyrus x bretschneideri]</t>
-  </si>
-  <si>
-    <t>[Vigna radiata var. radiata]</t>
-  </si>
-  <si>
-    <t>[Cucumis sativus]</t>
-  </si>
-  <si>
-    <t>[Durio zibethinus]</t>
-  </si>
-  <si>
-    <t>[Vitis vinifera]</t>
-  </si>
-  <si>
-    <t>[Cucurbita maxima]</t>
-  </si>
-  <si>
-    <t>[Theobroma cacao]</t>
-  </si>
-  <si>
-    <t>[Nicotiana tomentosiformis]</t>
-  </si>
-  <si>
-    <t>[Populus euphratica]</t>
-  </si>
-  <si>
-    <t>[Nicotiana attenuata]</t>
-  </si>
-  <si>
-    <t>[Coffea arabica]</t>
-  </si>
-  <si>
-    <t>[Coffea eugenioides]</t>
-  </si>
-  <si>
-    <t>[Glycine max]</t>
-  </si>
-  <si>
-    <t>[Capsicum annuum]</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Pan troglodytes</t>
-  </si>
-  <si>
-    <t>Macaca mulatta</t>
-  </si>
-  <si>
-    <t>Canis lupus familiaris</t>
-  </si>
-  <si>
-    <t>Bos taurus</t>
-  </si>
-  <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
-    <t>Rattus norvegicus</t>
-  </si>
-  <si>
-    <t>Gallus gallus</t>
-  </si>
-  <si>
-    <t>Danio rerio</t>
-  </si>
-  <si>
-    <t>Drosophila melanogaster</t>
-  </si>
-  <si>
-    <t>Anopheles gambiae str. PEST</t>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae S288C</t>
-  </si>
-  <si>
-    <t>Kluyveromyces lactis</t>
-  </si>
-  <si>
-    <t>Eremothecium gossypii ATCC 10895</t>
-  </si>
-  <si>
-    <t>Schizosaccharomyces pombe</t>
-  </si>
-  <si>
-    <t>Pyricularia oryzae 70-15</t>
-  </si>
-  <si>
-    <t>Neurospora crassa OR74A</t>
-  </si>
-  <si>
-    <t>Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>Oryza sativa Japonica Group</t>
-  </si>
-  <si>
-    <t>Xenopus tropicalis</t>
-  </si>
-  <si>
     <t>Dmel</t>
   </si>
   <si>
@@ -1509,12 +1301,447 @@
   </si>
   <si>
     <t>Org_Zmarina</t>
+  </si>
+  <si>
+    <t>[Abrus</t>
+  </si>
+  <si>
+    <t>precatorius]</t>
+  </si>
+  <si>
+    <t>[Arabidopsis</t>
+  </si>
+  <si>
+    <t>lyrata</t>
+  </si>
+  <si>
+    <t>subsp.</t>
+  </si>
+  <si>
+    <t>lyrata]</t>
+  </si>
+  <si>
+    <t>thaliana]</t>
+  </si>
+  <si>
+    <t>[Brassica</t>
+  </si>
+  <si>
+    <t>napus]</t>
+  </si>
+  <si>
+    <t>oleracea</t>
+  </si>
+  <si>
+    <t>var.</t>
+  </si>
+  <si>
+    <t>oleracea]</t>
+  </si>
+  <si>
+    <t>rapa]</t>
+  </si>
+  <si>
+    <t>[Camelina</t>
+  </si>
+  <si>
+    <t>sativa]</t>
+  </si>
+  <si>
+    <t>[Capsella</t>
+  </si>
+  <si>
+    <t>rubella]</t>
+  </si>
+  <si>
+    <t>[Capsicum</t>
+  </si>
+  <si>
+    <t>annuum]</t>
+  </si>
+  <si>
+    <t>[Citrus</t>
+  </si>
+  <si>
+    <t>clementina]</t>
+  </si>
+  <si>
+    <t>sinensis]</t>
+  </si>
+  <si>
+    <t>[Coffea</t>
+  </si>
+  <si>
+    <t>arabica]</t>
+  </si>
+  <si>
+    <t>eugenioides]</t>
+  </si>
+  <si>
+    <t>[Cucumis</t>
+  </si>
+  <si>
+    <t>sativus]</t>
+  </si>
+  <si>
+    <t>[Cucurbita</t>
+  </si>
+  <si>
+    <t>maxima]</t>
+  </si>
+  <si>
+    <t>moschata]</t>
+  </si>
+  <si>
+    <t>pepo</t>
+  </si>
+  <si>
+    <t>pepo]</t>
+  </si>
+  <si>
+    <t>[Durio</t>
+  </si>
+  <si>
+    <t>zibethinus]</t>
+  </si>
+  <si>
+    <t>[Eutrema</t>
+  </si>
+  <si>
+    <t>salsugineum]</t>
+  </si>
+  <si>
+    <t>[Fragaria</t>
+  </si>
+  <si>
+    <t>vesca</t>
+  </si>
+  <si>
+    <t>vesca]</t>
+  </si>
+  <si>
+    <t>[Glycine</t>
+  </si>
+  <si>
+    <t>max]</t>
+  </si>
+  <si>
+    <t>[Gossypium</t>
+  </si>
+  <si>
+    <t>arboreum]</t>
+  </si>
+  <si>
+    <t>hirsutum]</t>
+  </si>
+  <si>
+    <t>raimondii]</t>
+  </si>
+  <si>
+    <t>[Herrania</t>
+  </si>
+  <si>
+    <t>umbratica]</t>
+  </si>
+  <si>
+    <t>[Hevea</t>
+  </si>
+  <si>
+    <t>brasiliensis]</t>
+  </si>
+  <si>
+    <t>[Jatropha</t>
+  </si>
+  <si>
+    <t>curcas]</t>
+  </si>
+  <si>
+    <t>[Juglans</t>
+  </si>
+  <si>
+    <t>regia]</t>
+  </si>
+  <si>
+    <t>[Malus</t>
+  </si>
+  <si>
+    <t>domestica]</t>
+  </si>
+  <si>
+    <t>[Manihot</t>
+  </si>
+  <si>
+    <t>esculenta]</t>
+  </si>
+  <si>
+    <t>[Momordica</t>
+  </si>
+  <si>
+    <t>charantia]</t>
+  </si>
+  <si>
+    <t>[Morus</t>
+  </si>
+  <si>
+    <t>notabilis]</t>
+  </si>
+  <si>
+    <t>[Nicotiana</t>
+  </si>
+  <si>
+    <t>attenuata]</t>
+  </si>
+  <si>
+    <t>tomentosiformis]</t>
+  </si>
+  <si>
+    <t>[Phaseolus</t>
+  </si>
+  <si>
+    <t>vulgaris]</t>
+  </si>
+  <si>
+    <t>[Populus</t>
+  </si>
+  <si>
+    <t>euphratica]</t>
+  </si>
+  <si>
+    <t>trichocarpa]</t>
+  </si>
+  <si>
+    <t>[Prunus</t>
+  </si>
+  <si>
+    <t>avium]</t>
+  </si>
+  <si>
+    <t>persica]</t>
+  </si>
+  <si>
+    <t>[Pyrus</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>bretschneideri]</t>
+  </si>
+  <si>
+    <t>[Quercus</t>
+  </si>
+  <si>
+    <t>suber]</t>
+  </si>
+  <si>
+    <t>[Raphanus</t>
+  </si>
+  <si>
+    <t>[Rosa</t>
+  </si>
+  <si>
+    <t>chinensis]</t>
+  </si>
+  <si>
+    <t>[Solanum</t>
+  </si>
+  <si>
+    <t>lycopersicum]</t>
+  </si>
+  <si>
+    <t>pennellii]</t>
+  </si>
+  <si>
+    <t>tuberosum]</t>
+  </si>
+  <si>
+    <t>[Tarenaya</t>
+  </si>
+  <si>
+    <t>hassleriana]</t>
+  </si>
+  <si>
+    <t>[Theobroma</t>
+  </si>
+  <si>
+    <t>cacao]</t>
+  </si>
+  <si>
+    <t>[Vigna</t>
+  </si>
+  <si>
+    <t>radiata</t>
+  </si>
+  <si>
+    <t>radiata]</t>
+  </si>
+  <si>
+    <t>unguiculata]</t>
+  </si>
+  <si>
+    <t>[Vitis</t>
+  </si>
+  <si>
+    <t>vinifera]</t>
+  </si>
+  <si>
+    <t>[Ziziphus</t>
+  </si>
+  <si>
+    <t>jujuba]</t>
+  </si>
+  <si>
+    <t>Anopheles</t>
+  </si>
+  <si>
+    <t>gambiae</t>
+  </si>
+  <si>
+    <t>str.</t>
+  </si>
+  <si>
+    <t>PEST</t>
+  </si>
+  <si>
+    <t>Arabidopsis</t>
+  </si>
+  <si>
+    <t>thaliana</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>taurus</t>
+  </si>
+  <si>
+    <t>Canis</t>
+  </si>
+  <si>
+    <t>lupus</t>
+  </si>
+  <si>
+    <t>familiaris</t>
+  </si>
+  <si>
+    <t>Danio</t>
+  </si>
+  <si>
+    <t>rerio</t>
+  </si>
+  <si>
+    <t>Drosophila</t>
+  </si>
+  <si>
+    <t>melanogaster</t>
+  </si>
+  <si>
+    <t>Eremothecium</t>
+  </si>
+  <si>
+    <t>gossypii</t>
+  </si>
+  <si>
+    <t>ATCC</t>
+  </si>
+  <si>
+    <t>Gallus</t>
+  </si>
+  <si>
+    <t>gallus</t>
+  </si>
+  <si>
+    <t>Homo</t>
+  </si>
+  <si>
+    <t>sapiens</t>
+  </si>
+  <si>
+    <t>Kluyveromyces</t>
+  </si>
+  <si>
+    <t>lactis</t>
+  </si>
+  <si>
+    <t>Macaca</t>
+  </si>
+  <si>
+    <t>mulatta</t>
+  </si>
+  <si>
+    <t>Mus</t>
+  </si>
+  <si>
+    <t>musculus</t>
+  </si>
+  <si>
+    <t>Neurospora</t>
+  </si>
+  <si>
+    <t>crassa</t>
+  </si>
+  <si>
+    <t>OR74A</t>
+  </si>
+  <si>
+    <t>Oryza</t>
+  </si>
+  <si>
+    <t>sativa</t>
+  </si>
+  <si>
+    <t>Japonica</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>troglodytes</t>
+  </si>
+  <si>
+    <t>Pyricularia</t>
+  </si>
+  <si>
+    <t>oryzae</t>
+  </si>
+  <si>
+    <t>70-15</t>
+  </si>
+  <si>
+    <t>Rattus</t>
+  </si>
+  <si>
+    <t>norvegicus</t>
+  </si>
+  <si>
+    <t>Saccharomyces</t>
+  </si>
+  <si>
+    <t>cerevisiae</t>
+  </si>
+  <si>
+    <t>S288C</t>
+  </si>
+  <si>
+    <t>Schizosaccharomyces</t>
+  </si>
+  <si>
+    <t>pombe</t>
+  </si>
+  <si>
+    <t>Xenopus</t>
+  </si>
+  <si>
+    <t>tropicalis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2348,19 +2575,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H111" sqref="H1:H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2442,7 +2669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2483,7 +2710,7 @@
         <v>97.92</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2524,7 +2751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2565,7 +2792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2606,7 +2833,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2647,7 +2874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2688,7 +2915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2729,7 +2956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2770,7 +2997,7 @@
         <v>99.34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +3038,7 @@
         <v>96.74</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2852,7 +3079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2893,7 +3120,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2934,7 +3161,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2975,7 +3202,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3016,7 +3243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +3366,7 @@
         <v>96.95</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3221,7 +3448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3489,7 @@
         <v>97.51</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3303,7 +3530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3344,7 +3571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3385,7 +3612,7 @@
         <v>97.32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +3653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3467,7 +3694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3508,7 +3735,7 @@
         <v>99.45</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3549,7 +3776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3590,7 +3817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3631,7 +3858,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3672,7 +3899,7 @@
         <v>93.49</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3713,7 +3940,7 @@
         <v>50.29</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3754,7 +3981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3795,7 +4022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3836,7 +4063,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +4104,7 @@
         <v>98.36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3918,7 +4145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3959,7 +4186,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -4000,7 +4227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4041,7 +4268,7 @@
         <v>98.67</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4082,7 +4309,7 @@
         <v>94.39</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4123,7 +4350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4164,7 +4391,7 @@
         <v>97.99</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -4205,7 +4432,7 @@
         <v>99.51</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4246,7 +4473,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4287,7 +4514,7 @@
         <v>97.77</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -4328,7 +4555,7 @@
         <v>87.75</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4369,7 +4596,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -4410,7 +4637,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4451,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4492,7 +4719,7 @@
         <v>92.22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4533,7 +4760,7 @@
         <v>96.37</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4574,7 +4801,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4615,7 +4842,7 @@
         <v>99.72</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4656,7 +4883,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4697,7 +4924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4738,7 +4965,7 @@
         <v>64.03</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4779,7 +5006,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4820,7 +5047,7 @@
         <v>99.37</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4861,7 +5088,7 @@
         <v>69.930000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4902,7 +5129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4943,7 +5170,7 @@
         <v>78.819999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4984,7 +5211,7 @@
         <v>57.47</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -5025,7 +5252,7 @@
         <v>97.08</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5066,7 +5293,7 @@
         <v>91.63</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -5107,7 +5334,7 @@
         <v>99.04</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -5148,7 +5375,7 @@
         <v>99.36</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5189,7 +5416,7 @@
         <v>93.79</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -5230,7 +5457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5271,7 +5498,7 @@
         <v>33.64</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5312,7 +5539,7 @@
         <v>72.64</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5353,7 +5580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5394,7 +5621,7 @@
         <v>80.709999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5435,7 +5662,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5476,7 +5703,7 @@
         <v>89.97</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5517,7 +5744,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5558,7 +5785,7 @@
         <v>84.11</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5599,7 +5826,7 @@
         <v>93.97</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5640,7 +5867,7 @@
         <v>93.58</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5681,7 +5908,7 @@
         <v>90.32</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5722,7 +5949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -5763,7 +5990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5804,7 +6031,7 @@
         <v>78.209999999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -5845,7 +6072,7 @@
         <v>92.97</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -5886,7 +6113,7 @@
         <v>92.68</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -5927,7 +6154,7 @@
         <v>99.56</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -5968,7 +6195,7 @@
         <v>94.31</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6009,7 +6236,7 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6050,7 +6277,7 @@
         <v>91.35</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -6091,7 +6318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6132,7 +6359,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6173,7 +6400,7 @@
         <v>72.510000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6214,7 +6441,7 @@
         <v>79.94</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -6255,7 +6482,7 @@
         <v>71.81</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -6296,7 +6523,7 @@
         <v>70.569999999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -6337,7 +6564,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -6378,7 +6605,7 @@
         <v>76.33</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -6419,7 +6646,7 @@
         <v>72.540000000000006</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6460,7 +6687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -6501,7 +6728,7 @@
         <v>34.07</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -6542,7 +6769,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -6583,7 +6810,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -6624,7 +6851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -6665,7 +6892,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -6706,7 +6933,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -6747,7 +6974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -6788,7 +7015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -6829,7 +7056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -6870,7 +7097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -6917,273 +7144,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F1" t="str">
+        <f>MID(A1,2,1)&amp;LEFT(B1,3)</f>
+        <v>Apre</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F52" si="0">MID(A2,2,1)&amp;LEFT(B2,3)</f>
+        <v>Alyr</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Bnap</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bole</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Brap</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+      <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Crub</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Cann</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Ccle</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="B11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Csin</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Cara</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+      <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ceug</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="B14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="B15" t="s">
+        <v>451</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Cmax</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="B16" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Cmos</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="B17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" t="s">
+        <v>427</v>
+      </c>
+      <c r="D17" t="s">
+        <v>454</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Cpep</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+      <c r="B18" t="s">
+        <v>456</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Dzib</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+      <c r="B19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Esal</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+      <c r="B20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" t="s">
+        <v>461</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Fves</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="B21" t="s">
+        <v>463</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Gmax</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="B22" t="s">
+        <v>465</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Garb</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="B23" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ghir</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="B24" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Grai</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+      <c r="B25" t="s">
+        <v>469</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Humb</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+      <c r="B26" t="s">
+        <v>471</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Hbra</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+      <c r="B27" t="s">
+        <v>473</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Jcur</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="B28" t="s">
+        <v>475</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Jreg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="B29" t="s">
+        <v>477</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Mdom</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+      <c r="B30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Mesc</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+      <c r="B31" t="s">
+        <v>481</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Mcha</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+      <c r="B32" t="s">
+        <v>483</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Mnot</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+      <c r="B33" t="s">
+        <v>485</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Natt</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+      <c r="B34" t="s">
+        <v>486</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Ntom</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+      <c r="B35" t="s">
+        <v>488</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvul</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+      <c r="B36" t="s">
+        <v>490</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Peup</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+      <c r="B37" t="s">
+        <v>491</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Ptri</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+      <c r="B38" t="s">
+        <v>493</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Pavi</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+      <c r="B39" t="s">
+        <v>494</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Pper</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+      <c r="B40" t="s">
+        <v>496</v>
+      </c>
+      <c r="C40" t="s">
+        <v>497</v>
+      </c>
+      <c r="F40" t="str">
+        <f>MID(A40,2,1)&amp;LEFT(C40,3)</f>
+        <v>Pbre</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+      <c r="B41" t="s">
+        <v>499</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Qsub</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+      <c r="B42" t="s">
+        <v>449</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Rsat</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+      <c r="B43" t="s">
+        <v>502</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Rchi</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+      <c r="B44" t="s">
+        <v>504</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Slyc</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+      <c r="B45" t="s">
+        <v>505</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Spen</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+      <c r="B46" t="s">
+        <v>506</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Stub</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+      <c r="B47" t="s">
+        <v>508</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Thas</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+      <c r="B48" t="s">
+        <v>510</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Tcac</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+      <c r="B49" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D49" t="s">
+        <v>513</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Vrad</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+      <c r="B50" t="s">
+        <v>514</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Vung</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+      <c r="B51" t="s">
+        <v>516</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>Vvin</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>313</v>
+        <v>517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>518</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>Zjuj</v>
       </c>
     </row>
   </sheetData>
@@ -7195,113 +7819,283 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+      <c r="B1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" t="str">
+        <f>LEFT(A1,1)&amp;LEFT(B1,3)</f>
+        <v>Agam</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+      <c r="B2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F20" si="0">LEFT(A2,1)&amp;LEFT(B2,3)</f>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>Btau</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+      <c r="B4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Clup</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="B5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Drer</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+      <c r="B6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Dmel</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+      <c r="B7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D7">
+        <v>10895</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Egos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+      <c r="B8" t="s">
+        <v>538</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ggal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+      <c r="B9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Hsap</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+      <c r="B10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Klac</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Mmul</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mmus</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+      <c r="B13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" t="s">
+        <v>549</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ncra</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+      <c r="B14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Osat</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+      <c r="B15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Ptro</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+      <c r="B16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" t="s">
+        <v>558</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Pory</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+      <c r="B17" t="s">
+        <v>560</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Rnor</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>561</v>
+      </c>
+      <c r="B18" t="s">
+        <v>562</v>
+      </c>
+      <c r="C18" t="s">
+        <v>563</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Scer</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+      <c r="B19" t="s">
+        <v>565</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Spom</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>566</v>
+      </c>
+      <c r="B20" t="s">
+        <v>567</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Xtro</v>
       </c>
     </row>
   </sheetData>
@@ -7313,323 +8107,323 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7641,316 +8435,556 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:A60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+      <c r="C1" t="str">
+        <f>MID(A1,5,4)</f>
+        <v>Acoe</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C60" si="0">MID(A2,5,4)</f>
+        <v>Acom</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahyp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Alyr</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Atri</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bdis</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Brap</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bsta</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bstr</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Ccle</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Cgra</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cpap</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Crei</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Crub</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Csin</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Dcar</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Egra</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Esal</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Fves</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Gmax</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Grai</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Kfed</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Klax</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Lusi</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Macu</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Mdom</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Mesc</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Mgut</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Mpol</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Mpus</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Msp.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Mtru</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Oluc</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Osat</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Otho</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Phal</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Ppat</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Pper</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Ptri</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvir</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvul</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Rcom</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Sbic</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Sfal</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Sita</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Slyc</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Smoe</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Spol</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Spur</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Stub</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Svir</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Tcac</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Tpra</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Vvin</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmar</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmay</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>421</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmay</v>
       </c>
     </row>
   </sheetData>
